--- a/AttendanceManagement/wwwroot/ExcelTemplates/Department Master.xlsx
+++ b/AttendanceManagement/wwwroot/ExcelTemplates/Department Master.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29103"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7624440B-43FF-41C8-A2B3-B880BBBA4BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F9C7CB6-865D-4CC6-9820-2B831A896160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Name</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Email</t>
+  </si>
+  <si>
+    <t>IsActive</t>
   </si>
 </sst>
 </file>
@@ -421,7 +424,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -449,6 +452,9 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:9">
       <c r="I2" s="1"/>
